--- a/1.1.5/Credential Issuance/TC_MOSIP_11479.xlsx
+++ b/1.1.5/Credential Issuance/TC_MOSIP_11479.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Desktop\1.1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Desktop\1.1.5\ci\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -62,42 +62,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Verify credential issuance to the third party</t>
-  </si>
-  <si>
-    <t>Verify Qrcode generation</t>
-  </si>
-  <si>
-    <t>Verify Reprint UIN card</t>
-  </si>
-  <si>
-    <t>Verify failed requests should get proceed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify  UIN and VID issuance </t>
-  </si>
-  <si>
-    <t>Credential issuance  should issued to third party after retry process</t>
-  </si>
-  <si>
-    <t>Qrcode should be generated</t>
-  </si>
-  <si>
-    <t>card should be downloaded</t>
-  </si>
-  <si>
-    <t>it should be reprocessed by configured time</t>
-  </si>
-  <si>
-    <t>Verify if credential issue failed</t>
-  </si>
-  <si>
-    <t>UIN and Vid should be issued</t>
-  </si>
-  <si>
-    <t>It should retry for configured time ,if time exceeds it should mark as failed</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Failed request handling_01</t>
   </si>
   <si>
@@ -114,13 +78,67 @@
   </si>
   <si>
     <t>CredentialIssuance_Failed request handling_06</t>
+  </si>
+  <si>
+    <t>Verify New api in Credential Request Generator to show Failed records</t>
+  </si>
+  <si>
+    <t>Verify New api in Credential Request Generator to retrigger the specific failed record</t>
+  </si>
+  <si>
+    <t>Failed records should be displayed</t>
+  </si>
+  <si>
+    <t>Failed record status should change to retry</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Failed request handling_07</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Failed request handling_08</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for UIN generation gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for VID generation gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for qrcode generation gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for re print gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Verify credential issuance for qrcode get reprocessed by giving credential request type as auth in properties</t>
+  </si>
+  <si>
+    <t>Verify credential issuance for reprint get reprocessed by giving credential request type as auth in properties</t>
+  </si>
+  <si>
+    <t>Credential issuance for UIN should get reproceed</t>
+  </si>
+  <si>
+    <t>Credential issuance for VID should get reproceed</t>
+  </si>
+  <si>
+    <t>Credential issuance for qrcode should get reproceed</t>
+  </si>
+  <si>
+    <t>Credential issuance for reprint should get reproceed</t>
+  </si>
+  <si>
+    <t>Credential issuance for qrcode should not get reprocessed</t>
+  </si>
+  <si>
+    <t>Credential issuance for reprint should not get reprocessed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,10 +156,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3B4151"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,12 +196,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -188,7 +207,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -196,17 +217,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,185 +517,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
